--- a/Table/Table_xls/b变身卡效果配置.xlsx
+++ b/Table/Table_xls/b变身卡效果配置.xlsx
@@ -81,8 +81,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -105,20 +105,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -149,7 +141,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,14 +194,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -212,29 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +254,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -264,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,17 +475,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -493,11 +482,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +517,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,32 +547,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,152 +573,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,9 +734,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1096,7 +1093,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1137,7 +1134,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1163,15 +1160,27 @@
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
       <c r="G2" s="3">
         <v>1000</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
       <c r="K2" s="3">
         <v>50</v>
       </c>
@@ -1195,15 +1204,27 @@
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
       <c r="G3" s="3">
         <v>1001</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
       <c r="K3" s="3">
         <v>51</v>
       </c>
@@ -1230,12 +1251,24 @@
       <c r="D4" s="3">
         <v>100</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
       <c r="K4" s="3">
         <v>52</v>
       </c>
@@ -1259,15 +1292,27 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
       <c r="G5" s="3">
         <v>1000</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
       <c r="K5" s="3">
         <v>53</v>
       </c>
@@ -1291,15 +1336,27 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
       <c r="G6" s="3">
         <v>1001</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
       <c r="K6" s="3">
         <v>54</v>
       </c>
@@ -1326,12 +1383,24 @@
       <c r="D7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
       <c r="K7" s="3">
         <v>55</v>
       </c>
@@ -1355,13 +1424,27 @@
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
       <c r="K8" s="3">
         <v>56</v>
       </c>
@@ -1388,12 +1471,24 @@
       <c r="D9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
       <c r="K9" s="3">
         <v>57</v>
       </c>
@@ -1417,15 +1512,27 @@
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
       <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
       <c r="K10" s="3">
         <v>58</v>
       </c>
@@ -1449,15 +1556,27 @@
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
       <c r="F11" s="3">
         <v>1000</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
       <c r="K11" s="3">
         <v>59</v>
       </c>
@@ -1481,15 +1600,27 @@
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
       <c r="G12" s="3">
         <v>1001</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
       <c r="K12" s="3">
         <v>60</v>
       </c>
@@ -1513,15 +1644,27 @@
       <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
       <c r="H13" s="3">
         <v>1000</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
       <c r="K13" s="3">
         <v>61</v>
       </c>
@@ -1545,15 +1688,27 @@
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
       <c r="H14" s="3">
         <v>1001</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
       <c r="K14" s="3">
         <v>62</v>
       </c>
@@ -1577,12 +1732,24 @@
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
       <c r="J15" s="3">
         <v>1002</v>
       </c>
@@ -1609,12 +1776,24 @@
       <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
       <c r="J16" s="3">
         <v>1003</v>
       </c>
@@ -1641,15 +1820,27 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
       <c r="H17" s="3">
         <v>1004</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
       <c r="K17" s="3">
         <v>65</v>
       </c>
@@ -1673,15 +1864,27 @@
       <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
       <c r="H18" s="3">
         <v>1005</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
       <c r="K18" s="3">
         <v>66</v>
       </c>
@@ -1705,14 +1908,24 @@
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
       <c r="H19" s="3">
         <v>1006</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
       <c r="J19" s="3">
         <v>1006</v>
       </c>
@@ -1739,14 +1952,24 @@
       <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
       <c r="H20" s="3">
         <v>1007</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
       <c r="J20" s="3">
         <v>1007</v>
       </c>
@@ -1773,15 +1996,27 @@
       <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="9">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
         <v>1000</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
       <c r="K21" s="3">
         <v>69</v>
       </c>
@@ -1805,15 +2040,25 @@
       <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
       <c r="G22" s="3">
         <v>1007</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
         <v>1000</v>
       </c>
       <c r="K22" s="3">
@@ -1839,17 +2084,27 @@
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
       <c r="E23" s="3">
         <v>10000</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="9">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
         <v>1000</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
       <c r="K23" s="3">
         <v>71</v>
       </c>
@@ -1873,15 +2128,27 @@
       <c r="C24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
       <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
       <c r="K24" s="3">
         <v>72</v>
       </c>
@@ -1905,17 +2172,27 @@
       <c r="C25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
       <c r="E25" s="3">
         <v>10000</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="9">
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
         <v>1000</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
       <c r="K25" s="3">
         <v>73</v>
       </c>
@@ -1933,7 +2210,7 @@
       <c r="A26" s="3">
         <v>6825</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="3">
         <v>540007</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1954,10 +2231,10 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8">
         <v>0</v>
       </c>
       <c r="K26" s="3">

--- a/Table/Table_xls/b变身卡效果配置.xlsx
+++ b/Table/Table_xls/b变身卡效果配置.xlsx
@@ -13,8 +13,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>weic</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应持续性buff表中的Buff编号字段
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -73,6 +106,9 @@
     <t>法术暴击几率</t>
   </si>
   <si>
+    <t>BUFFID</t>
+  </si>
+  <si>
     <t>FFff5900</t>
   </si>
 </sst>
@@ -81,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -104,15 +140,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,16 +157,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,8 +178,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -163,26 +209,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,7 +238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -202,22 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -248,8 +277,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,85 +300,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,97 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +505,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +548,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,206 +601,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1106,7 +1142,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1149,8 +1185,11 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="3">
         <v>6801</v>
       </c>
@@ -1158,7 +1197,7 @@
         <v>540016</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1193,8 +1232,11 @@
       <c r="N2" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+      <c r="O2" s="3">
+        <v>508001</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="3">
         <v>6802</v>
       </c>
@@ -1202,7 +1244,7 @@
         <v>540017</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1237,8 +1279,11 @@
       <c r="N3" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="O3" s="3">
+        <v>508002</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="3">
         <v>6803</v>
       </c>
@@ -1246,7 +1291,7 @@
         <v>540018</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3">
         <v>100</v>
@@ -1281,8 +1326,11 @@
       <c r="N4" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:14">
+      <c r="O4" s="3">
+        <v>508009</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="3">
         <v>6804</v>
       </c>
@@ -1290,7 +1338,7 @@
         <v>540019</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1325,8 +1373,11 @@
       <c r="N5" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:14">
+      <c r="O5" s="3">
+        <v>508010</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:15">
       <c r="A6" s="3">
         <v>6805</v>
       </c>
@@ -1334,7 +1385,7 @@
         <v>540020</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -1369,8 +1420,11 @@
       <c r="N6" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:14">
+      <c r="O6" s="3">
+        <v>508001</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="3">
         <v>6806</v>
       </c>
@@ -1378,7 +1432,7 @@
         <v>540021</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
         <v>100</v>
@@ -1413,8 +1467,11 @@
       <c r="N7" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:14">
+      <c r="O7" s="3">
+        <v>508010</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="3">
         <v>6807</v>
       </c>
@@ -1422,7 +1479,7 @@
         <v>540022</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1457,8 +1514,11 @@
       <c r="N8" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3">
+        <v>509247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3">
         <v>6808</v>
       </c>
@@ -1466,7 +1526,7 @@
         <v>540023</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
         <v>100</v>
@@ -1501,8 +1561,11 @@
       <c r="N9" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3">
+        <v>509247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
         <v>6809</v>
       </c>
@@ -1510,7 +1573,7 @@
         <v>540024</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1545,8 +1608,11 @@
       <c r="N10" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="3">
+        <v>509103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3">
         <v>6810</v>
       </c>
@@ -1554,7 +1620,7 @@
         <v>540025</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1589,8 +1655,11 @@
       <c r="N11" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="3">
+        <v>509103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3">
         <v>6811</v>
       </c>
@@ -1598,7 +1667,7 @@
         <v>540026</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -1633,8 +1702,11 @@
       <c r="N12" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="3">
+        <v>508001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3">
         <v>6812</v>
       </c>
@@ -1642,7 +1714,7 @@
         <v>540027</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1677,8 +1749,11 @@
       <c r="N13" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="3">
+        <v>509141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3">
         <v>6813</v>
       </c>
@@ -1686,7 +1761,7 @@
         <v>540028</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -1721,8 +1796,11 @@
       <c r="N14" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="3">
+        <v>509142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3">
         <v>6814</v>
       </c>
@@ -1730,7 +1808,7 @@
         <v>540029</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -1765,8 +1843,11 @@
       <c r="N15" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="3">
+        <v>508006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3">
         <v>6815</v>
       </c>
@@ -1774,7 +1855,7 @@
         <v>540030</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1809,8 +1890,11 @@
       <c r="N16" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="3">
+        <v>508006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="3">
         <v>6816</v>
       </c>
@@ -1818,7 +1902,7 @@
         <v>540031</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -1853,8 +1937,11 @@
       <c r="N17" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="3">
+        <v>509142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3">
         <v>6817</v>
       </c>
@@ -1862,7 +1949,7 @@
         <v>540032</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -1897,8 +1984,11 @@
       <c r="N18" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="3">
+        <v>509142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="3">
         <v>6818</v>
       </c>
@@ -1906,7 +1996,7 @@
         <v>540033</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -1941,8 +2031,11 @@
       <c r="N19" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="3">
+        <v>509142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="3">
         <v>6819</v>
       </c>
@@ -1950,7 +2043,7 @@
         <v>540034</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -1985,8 +2078,11 @@
       <c r="N20" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="3">
+        <v>508005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="3">
         <v>6820</v>
       </c>
@@ -1994,7 +2090,7 @@
         <v>540035</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2029,8 +2125,11 @@
       <c r="N21" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="3">
+        <v>509142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="3">
         <v>6821</v>
       </c>
@@ -2038,7 +2137,7 @@
         <v>540036</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -2073,8 +2172,11 @@
       <c r="N22" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="3">
+        <v>508005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="3">
         <v>6822</v>
       </c>
@@ -2082,7 +2184,7 @@
         <v>540037</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -2117,8 +2219,11 @@
       <c r="N23" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="3">
+        <v>509103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="3">
         <v>6823</v>
       </c>
@@ -2126,7 +2231,7 @@
         <v>540038</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -2161,8 +2266,11 @@
       <c r="N24" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="3">
+        <v>509103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="3">
         <v>6824</v>
       </c>
@@ -2170,7 +2278,7 @@
         <v>540039</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -2205,8 +2313,11 @@
       <c r="N25" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="3">
+        <v>508005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="3">
         <v>6825</v>
       </c>
@@ -2214,7 +2325,7 @@
         <v>540007</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -2248,6 +2359,9 @@
       </c>
       <c r="N26" s="3">
         <v>74</v>
+      </c>
+      <c r="O26" s="3">
+        <v>508005</v>
       </c>
     </row>
   </sheetData>
@@ -2257,5 +2371,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>